--- a/most_used_report.xlsx
+++ b/most_used_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,80 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Trash Bags</t>
+          <t>Mop</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Soap</t>
+          <t>Bucket</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Detergent</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bucket</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Detergent</t>
+          <t>Sponges</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mop</t>
+          <t>Trash Bags</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Trash Cans</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sponges</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
